--- a/指派类.xlsx
+++ b/指派类.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4735A3A5-9A25-4943-B0A3-34AD7F4BCD8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9F30B-2842-45C3-A78C-278BE2628103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="615" windowWidth="14970" windowHeight="10530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="2295" windowWidth="19470" windowHeight="11610" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="R6初始化方法" sheetId="9" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
+    <sheet name="field_index_transform" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="166">
   <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,6 +665,14 @@
   </si>
   <si>
     <t>inf_of_mptbl="matrix",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1067,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1532,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2200,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0FBD3D-30DB-46D0-AAC1-3479ADADC453}">
   <dimension ref="A2:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2884,7 +2892,7 @@
   <dimension ref="A2:S32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2909,7 +2917,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
-        <f>_xlfn.CONCAT(B2:O2)</f>
+        <f t="shared" ref="A2:A12" si="0">_xlfn.CONCAT(B2:O2)</f>
         <v>initialize =function(字段名,</v>
       </c>
       <c r="E2" t="s">
@@ -2933,7 +2941,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
-        <f>_xlfn.CONCAT(B3:O3)</f>
+        <f t="shared" si="0"/>
         <v>字段名,</v>
       </c>
       <c r="I3" t="s">
@@ -2945,7 +2953,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(B4:O4)</f>
+        <f t="shared" si="0"/>
         <v>字段名,</v>
       </c>
       <c r="I4" t="s">
@@ -2957,13 +2965,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(B5:O5)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(B6:O6)</f>
+        <f t="shared" si="0"/>
         <v>)</v>
       </c>
       <c r="H6" t="s">
@@ -2972,7 +2980,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(B7:O7)</f>
+        <f t="shared" si="0"/>
         <v>{</v>
       </c>
       <c r="H7" t="s">
@@ -2981,7 +2989,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(B8:O8)</f>
+        <f t="shared" si="0"/>
         <v>self$字段名=字段名,</v>
       </c>
       <c r="I8" t="s">
@@ -2999,7 +3007,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(B9:O9)</f>
+        <f t="shared" si="0"/>
         <v>self$字段名=字段名,</v>
       </c>
       <c r="I9" t="s">
@@ -3017,7 +3025,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(B10:O10)</f>
+        <f t="shared" si="0"/>
         <v>self$字段名=字段名,</v>
       </c>
       <c r="I10" t="s">
@@ -3035,13 +3043,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(B11:O11)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(B12:O12)</f>
+        <f t="shared" si="0"/>
         <v>}</v>
       </c>
       <c r="H12" t="s">
@@ -3114,7 +3122,7 @@
         <v>variable=NULL,</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B20" si="0">O17</f>
+        <f t="shared" ref="B17:B20" si="1">O17</f>
         <v>self$variable=variable</v>
       </c>
       <c r="I17" t="s">
@@ -3134,21 +3142,21 @@
         <v>variable=NULL,</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" ref="O17:O20" si="1">_xlfn.CONCAT(P17:AA17)</f>
+        <f t="shared" ref="O17:O20" si="2">_xlfn.CONCAT(P17:AA17)</f>
         <v>self$variable=variable</v>
       </c>
       <c r="P17" t="s">
         <v>149</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ref="Q17:Q20" si="2">I17</f>
+        <f t="shared" ref="Q17:Q20" si="3">I17</f>
         <v>variable</v>
       </c>
       <c r="R17" t="s">
         <v>46</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" ref="S17:S20" si="3">I17</f>
+        <f t="shared" ref="S17:S20" si="4">I17</f>
         <v>variable</v>
       </c>
     </row>
@@ -3158,7 +3166,7 @@
         <v>default_field=NULL,</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>self$default_field=default_field</v>
       </c>
       <c r="I18" t="s">
@@ -3178,21 +3186,21 @@
         <v>default_field=NULL,</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>self$default_field=default_field</v>
       </c>
       <c r="P18" t="s">
         <v>149</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>default_field</v>
       </c>
       <c r="R18" t="s">
         <v>46</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>default_field</v>
       </c>
     </row>
@@ -3202,7 +3210,7 @@
         <v>preselection_field=NULL,</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>self$preselection_field=preselection_field</v>
       </c>
       <c r="I19" t="s">
@@ -3222,21 +3230,21 @@
         <v>preselection_field=NULL,</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>self$preselection_field=preselection_field</v>
       </c>
       <c r="P19" t="s">
         <v>149</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>preselection_field</v>
       </c>
       <c r="R19" t="s">
         <v>46</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>preselection_field</v>
       </c>
     </row>
@@ -3246,7 +3254,7 @@
         <v>mapping_table=NULL</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>self$mapping_table=mapping_table</v>
       </c>
       <c r="I20" t="s">
@@ -3263,61 +3271,61 @@
         <v>mapping_table=NULL</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>self$mapping_table=mapping_table</v>
       </c>
       <c r="P20" t="s">
         <v>149</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="2"/>
-        <v>mapping_table</v>
-      </c>
-      <c r="R20" t="s">
-        <v>46</v>
-      </c>
-      <c r="S20" t="str">
         <f t="shared" si="3"/>
         <v>mapping_table</v>
       </c>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="4"/>
+        <v>mapping_table</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
-        <f t="shared" ref="A21:A32" si="4">G21</f>
+        <f t="shared" ref="A21:A23" si="5">G21</f>
         <v>0</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:B32" si="5">O21</f>
+        <f t="shared" ref="B21:B32" si="6">O21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="B22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="B23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
-        <f>M24</f>
+        <f t="shared" ref="A24:A32" si="7">M24</f>
         <v>field_groups=NULL,</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>self$field_groups=field_groups</v>
       </c>
       <c r="I24" t="s">
@@ -3333,7 +3341,7 @@
         <v>41</v>
       </c>
       <c r="M24" t="str">
-        <f>_xlfn.CONCAT(H24:L24)</f>
+        <f t="shared" ref="M24:M32" si="8">_xlfn.CONCAT(H24:L24)</f>
         <v>field_groups=NULL,</v>
       </c>
       <c r="O24" t="str">
@@ -3357,11 +3365,11 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
-        <f>M25</f>
+        <f t="shared" si="7"/>
         <v>variable=NULL,</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>self$variable=variable</v>
       </c>
       <c r="I25" t="s">
@@ -3377,35 +3385,35 @@
         <v>41</v>
       </c>
       <c r="M25" t="str">
-        <f>_xlfn.CONCAT(H25:L25)</f>
+        <f t="shared" si="8"/>
         <v>variable=NULL,</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" ref="O25:O32" si="6">_xlfn.CONCAT(P25:AA25)</f>
+        <f t="shared" ref="O25:O32" si="9">_xlfn.CONCAT(P25:AA25)</f>
         <v>self$variable=variable</v>
       </c>
       <c r="P25" t="s">
         <v>149</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" ref="Q25:Q32" si="7">I25</f>
+        <f t="shared" ref="Q25:Q32" si="10">I25</f>
         <v>variable</v>
       </c>
       <c r="R25" t="s">
         <v>46</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" ref="S25:S32" si="8">I25</f>
+        <f t="shared" ref="S25:S32" si="11">I25</f>
         <v>variable</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
-        <f>M26</f>
+        <f t="shared" si="7"/>
         <v>default_field=NULL,</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>self$default_field=default_field</v>
       </c>
       <c r="I26" t="s">
@@ -3421,35 +3429,35 @@
         <v>41</v>
       </c>
       <c r="M26" t="str">
-        <f>_xlfn.CONCAT(H26:L26)</f>
+        <f t="shared" si="8"/>
         <v>default_field=NULL,</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>self$default_field=default_field</v>
       </c>
       <c r="P26" t="s">
         <v>149</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>default_field</v>
       </c>
       <c r="R26" t="s">
         <v>46</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>default_field</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
-        <f>M27</f>
+        <f t="shared" si="7"/>
         <v>preselection_field=NULL,</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>self$preselection_field=preselection_field</v>
       </c>
       <c r="I27" t="s">
@@ -3465,35 +3473,35 @@
         <v>41</v>
       </c>
       <c r="M27" t="str">
-        <f>_xlfn.CONCAT(H27:L27)</f>
+        <f t="shared" si="8"/>
         <v>preselection_field=NULL,</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>self$preselection_field=preselection_field</v>
       </c>
       <c r="P27" t="s">
         <v>149</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>preselection_field</v>
       </c>
       <c r="R27" t="s">
         <v>46</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>preselection_field</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
-        <f>M28</f>
+        <f t="shared" si="7"/>
         <v>field_index_transform=NULL,</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>self$field_index_transform=field_index_transform</v>
       </c>
       <c r="I28" t="s">
@@ -3509,35 +3517,35 @@
         <v>41</v>
       </c>
       <c r="M28" t="str">
-        <f>_xlfn.CONCAT(H28:L28)</f>
+        <f t="shared" si="8"/>
         <v>field_index_transform=NULL,</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>self$field_index_transform=field_index_transform</v>
       </c>
       <c r="P28" t="s">
         <v>149</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>field_index_transform</v>
       </c>
       <c r="R28" t="s">
         <v>46</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>field_index_transform</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
-        <f>M29</f>
+        <f t="shared" si="7"/>
         <v>mapping_table=NULL,</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>self$mapping_table=mapping_table</v>
       </c>
       <c r="I29" t="s">
@@ -3553,35 +3561,35 @@
         <v>41</v>
       </c>
       <c r="M29" t="str">
-        <f>_xlfn.CONCAT(H29:L29)</f>
+        <f t="shared" si="8"/>
         <v>mapping_table=NULL,</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>self$mapping_table=mapping_table</v>
       </c>
       <c r="P29" t="s">
         <v>149</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>mapping_table</v>
       </c>
       <c r="R29" t="s">
         <v>46</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>mapping_table</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
-        <f>M30</f>
+        <f t="shared" si="7"/>
         <v>inf_of_mptbl=NULL,</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>self$inf_of_mptbl=inf_of_mptbl</v>
       </c>
       <c r="I30" t="s">
@@ -3597,35 +3605,35 @@
         <v>41</v>
       </c>
       <c r="M30" t="str">
-        <f>_xlfn.CONCAT(H30:L30)</f>
+        <f t="shared" si="8"/>
         <v>inf_of_mptbl=NULL,</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>self$inf_of_mptbl=inf_of_mptbl</v>
       </c>
       <c r="P30" t="s">
         <v>149</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>inf_of_mptbl</v>
       </c>
       <c r="R30" t="s">
         <v>46</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>inf_of_mptbl</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
-        <f>M31</f>
+        <f t="shared" si="7"/>
         <v>field_right_bound=NULL,</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>self$field_right_bound=field_right_bound</v>
       </c>
       <c r="I31" t="s">
@@ -3641,35 +3649,35 @@
         <v>41</v>
       </c>
       <c r="M31" t="str">
-        <f>_xlfn.CONCAT(H31:L31)</f>
+        <f t="shared" si="8"/>
         <v>field_right_bound=NULL,</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>self$field_right_bound=field_right_bound</v>
       </c>
       <c r="P31" t="s">
         <v>149</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>field_right_bound</v>
       </c>
       <c r="R31" t="s">
         <v>46</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>field_right_bound</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
-        <f>M32</f>
+        <f t="shared" si="7"/>
         <v>DT_container=NULL,</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>self$DT_container=DT_container</v>
       </c>
       <c r="I32" t="s">
@@ -3685,25 +3693,25 @@
         <v>41</v>
       </c>
       <c r="M32" t="str">
-        <f>_xlfn.CONCAT(H32:L32)</f>
+        <f t="shared" si="8"/>
         <v>DT_container=NULL,</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>self$DT_container=DT_container</v>
       </c>
       <c r="P32" t="s">
         <v>149</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>DT_container</v>
       </c>
       <c r="R32" t="s">
         <v>46</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>DT_container</v>
       </c>
     </row>
@@ -3718,7 +3726,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3799,7 +3807,7 @@
   <dimension ref="A3:XFD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3996,59 +4004,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A12A7A1-5E1B-4A27-AE6C-D4A2D4E12870}">
-  <dimension ref="A2:M6"/>
+  <dimension ref="A2:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="46.375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>117</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>118</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>120</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>121</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>124</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>125</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>126</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3">_xlfn.CONCAT(C3:M3&amp;"','")</f>
+        <f t="array" ref="A3">_xlfn.CONCAT(D3:N3&amp;"','")</f>
         <v>1','1','1','1','1','3','3','4','4','4','4','</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>164</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4063,13 +4075,13 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -4080,14 +4092,17 @@
       <c r="M3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="str" cm="1">
-        <f t="array" ref="A4">_xlfn.CONCAT(C4:M4&amp;"','")</f>
+        <f t="array" ref="A4">_xlfn.CONCAT(D4:N4&amp;"','")</f>
         <v>Plot Data','Plot Data','Plot Data','Plot Data','Plot Data','Lattice By','Lattice By','Group By','Group By','Group By','Group By','</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>128</v>
@@ -4102,13 +4117,13 @@
         <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
         <v>130</v>
@@ -4119,16 +4134,21 @@
       <c r="M4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
